--- a/SMA/home/sama/Reports/topic_reviews.xlsx
+++ b/SMA/home/sama/Reports/topic_reviews.xlsx
@@ -25,69 +25,78 @@
     <t>Review</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
   </si>
   <si>
+    <t>also you can order through screens installed next to the shops.</t>
+  </si>
+  <si>
+    <t>even foods at kfc and other stalls</t>
+  </si>
+  <si>
+    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
+  </si>
+  <si>
     <t>there will be no food available in the flights or nearby airport.</t>
   </si>
   <si>
-    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
-  </si>
-  <si>
-    <t>also you can order through screens installed next to the shops.</t>
+    <t>@blr lounges, fantastic foods and professional staffs.</t>
   </si>
   <si>
     <t>many options for shopping for gentlemen, ladies and kids.</t>
   </si>
   <si>
-    <t>@blr lounges, fantastic foods and professional staffs.</t>
-  </si>
-  <si>
     <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
   </si>
   <si>
     <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
   </si>
   <si>
-    <t>even foods at kfc and other stalls</t>
+    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
   </si>
   <si>
@@ -97,73 +106,64 @@
     <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
   </si>
   <si>
+    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+  </si>
+  <si>
+    <t>well maintained and nice ambience... but very far from main city..</t>
+  </si>
+  <si>
+    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
+  </si>
+  <si>
+    <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
+  </si>
+  <si>
+    <t>everything is neat and clean.</t>
+  </si>
+  <si>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
+  </si>
+  <si>
     <t>all social distancing protocols maintained and extremely hygienic.</t>
-  </si>
-  <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
 </t>
   </si>
   <si>
-    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
+    <t>very near and clean.</t>
+  </si>
+  <si>
+    <t>, it's clean and one of the best international airports in india.</t>
   </si>
   <si>
     <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
   </si>
   <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>, it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
-  </si>
-  <si>
-    <t>very near and clean.</t>
-  </si>
-  <si>
     <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
   </si>
   <si>
     <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
+    <t>the airport also clean and fresh.</t>
   </si>
   <si>
     <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
   </si>
   <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
-    <t>well maintained and nice ambience... but very far from main city..</t>
-  </si>
-  <si>
     <t>neat clean and luxurious.</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
+    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
+  </si>
+  <si>
     <t>it's infrastructure is very impressive.</t>
   </si>
   <si>
-    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
-  </si>
-  <si>
     <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
   </si>
   <si>
@@ -189,22 +189,22 @@
   </si>
   <si>
     <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
+  </si>
+  <si>
+    <t>the staff is polite and helpful.</t>
+  </si>
+  <si>
+    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t xml:space="preserve">helpful staff, overall experience was very good. 
 </t>
   </si>
   <si>
+    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
+  </si>
+  <si>
     <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
-  </si>
-  <si>
-    <t>the staff is polite and helpful.</t>
-  </si>
-  <si>
-    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -809,15 +809,15 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -946,15 +946,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -962,31 +962,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>

--- a/SMA/home/sama/Reports/topic_reviews.xlsx
+++ b/SMA/home/sama/Reports/topic_reviews.xlsx
@@ -28,115 +28,115 @@
     <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
-  </si>
-  <si>
     <t>also you can order through screens installed next to the shops.</t>
   </si>
   <si>
+    <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
+  </si>
+  <si>
+    <t>there will be no food available in the flights or nearby airport.</t>
+  </si>
+  <si>
+    <t>@blr lounges, fantastic foods and professional staffs.</t>
+  </si>
+  <si>
     <t>even foods at kfc and other stalls</t>
   </si>
   <si>
+    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
+  </si>
+  <si>
+    <t>many options for shopping for gentlemen, ladies and kids.</t>
+  </si>
+  <si>
     <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
   </si>
   <si>
-    <t>there will be no food available in the flights or nearby airport.</t>
-  </si>
-  <si>
-    <t>@blr lounges, fantastic foods and professional staffs.</t>
-  </si>
-  <si>
-    <t>many options for shopping for gentlemen, ladies and kids.</t>
-  </si>
-  <si>
-    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
-  </si>
-  <si>
-    <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
+    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
-  </si>
-  <si>
-    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+    <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
+  </si>
+  <si>
+    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t>, it's clean and one of the best international airports in india.</t>
+  </si>
+  <si>
+    <t>the airport also clean and fresh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+  </si>
+  <si>
+    <t>neat clean and luxurious.</t>
   </si>
   <si>
     <t>well maintained and nice ambience... but very far from main city..</t>
   </si>
   <si>
-    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
-  </si>
-  <si>
     <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
-  </si>
-  <si>
-    <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
-  </si>
-  <si>
-    <t>all social distancing protocols maintained and extremely hygienic.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
@@ -146,55 +146,49 @@
     <t>very near and clean.</t>
   </si>
   <si>
-    <t>, it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
+  </si>
+  <si>
+    <t>all social distancing protocols maintained and extremely hygienic.</t>
+  </si>
+  <si>
+    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+  </si>
+  <si>
+    <t>everything is neat and clean.</t>
+  </si>
+  <si>
+    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
   </si>
   <si>
     <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
-  </si>
-  <si>
-    <t>neat clean and luxurious.</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/108612927997029907886?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
+    <t>it's infrastructure is very impressive.</t>
+  </si>
+  <si>
+    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
+  </si>
+  <si>
     <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
   </si>
   <si>
-    <t>it's infrastructure is very impressive.</t>
-  </si>
-  <si>
-    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/109912751375969844218?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/114389758307511614241?hl=en-IN</t>
   </si>
   <si>
-    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
-  </si>
-  <si>
     <t>the staff is polite and helpful.</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t xml:space="preserve">helpful staff, overall experience was very good. 
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
+  </si>
+  <si>
+    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
+  </si>
+  <si>
+    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -726,66 +726,66 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -793,20 +793,20 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -946,18 +946,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -965,39 +965,39 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/SMA/home/sama/Reports/topic_reviews.xlsx
+++ b/SMA/home/sama/Reports/topic_reviews.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Reviewer URL</t>
   </si>
@@ -25,58 +25,82 @@
     <t>Review</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
-  </si>
-  <si>
-    <t>also you can order through screens installed next to the shops.</t>
+    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
+  </si>
+  <si>
+    <t>there will be no food available in the flights or nearby airport.</t>
+  </si>
+  <si>
+    <t>@blr lounges, fantastic foods and professional staffs.</t>
+  </si>
+  <si>
+    <t>many options for shopping for gentlemen, ladies and kids.</t>
   </si>
   <si>
     <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
   </si>
   <si>
-    <t>there will be no food available in the flights or nearby airport.</t>
-  </si>
-  <si>
-    <t>@blr lounges, fantastic foods and professional staffs.</t>
-  </si>
-  <si>
-    <t>even foods at kfc and other stalls</t>
-  </si>
-  <si>
     <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
   </si>
   <si>
-    <t>many options for shopping for gentlemen, ladies and kids.</t>
-  </si>
-  <si>
-    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
+    <t>even foods at kfc and other stalls also you can order through screens installed next to the shops.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
+    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
@@ -85,86 +109,56 @@
     <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
+    <t>well maintained and nice ambience... but very far from main city..</t>
+  </si>
+  <si>
+    <t>very near and clean.</t>
+  </si>
+  <si>
+    <t>it's clean and one of the best international airports in india.</t>
+  </si>
+  <si>
+    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
+  </si>
+  <si>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
   </si>
   <si>
     <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
   </si>
   <si>
-    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
-  </si>
-  <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>, it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+    <t>everything is neat and clean.</t>
   </si>
   <si>
     <t>neat clean and luxurious.</t>
   </si>
   <si>
-    <t>well maintained and nice ambience... but very far from main city..</t>
-  </si>
-  <si>
-    <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
+    <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
 </t>
   </si>
   <si>
-    <t>very near and clean.</t>
-  </si>
-  <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
-  </si>
-  <si>
     <t>all social distancing protocols maintained and extremely hygienic.</t>
   </si>
   <si>
     <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
   </si>
   <si>
-    <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
-  </si>
-  <si>
-    <t>from entry to exit its was guided and maintained well.</t>
+    <t>the airport also clean and fresh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/108612927997029907886?hl=en-IN</t>
@@ -173,38 +167,38 @@
     <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
-    <t>it's infrastructure is very impressive.</t>
+    <t>infrastructure is very impressive.</t>
+  </si>
+  <si>
+    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
   </si>
   <si>
     <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
   </si>
   <si>
-    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
+    <t>https://www.google.com/maps/contrib/114389758307511614241?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/109912751375969844218?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/114389758307511614241?hl=en-IN</t>
+    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
   </si>
   <si>
     <t>the staff is polite and helpful.</t>
+  </si>
+  <si>
+    <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
+  </si>
+  <si>
+    <t>thanks to every staffs.</t>
+  </si>
+  <si>
+    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
   </si>
   <si>
     <t xml:space="preserve">helpful staff, overall experience was very good. 
 </t>
-  </si>
-  <si>
-    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
-  </si>
-  <si>
-    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
-  </si>
-  <si>
-    <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,7 +617,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -639,18 +633,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -662,7 +648,6 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,7 +655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,50 +671,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -758,7 +743,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -774,50 +759,50 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -825,15 +810,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +833,6 @@
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
     <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -880,26 +856,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -930,74 +906,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SMA/home/sama/Reports/topic_reviews.xlsx
+++ b/SMA/home/sama/Reports/topic_reviews.xlsx
@@ -25,25 +25,31 @@
     <t>Review</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+    <t>many options for shopping for gentlemen, ladies and kids.</t>
+  </si>
+  <si>
+    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
   </si>
   <si>
     <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
@@ -52,130 +58,124 @@
     <t>there will be no food available in the flights or nearby airport.</t>
   </si>
   <si>
+    <t>even foods at kfc and other stalls also you can order through screens installed next to the shops.</t>
+  </si>
+  <si>
     <t>@blr lounges, fantastic foods and professional staffs.</t>
   </si>
   <si>
-    <t>many options for shopping for gentlemen, ladies and kids.</t>
-  </si>
-  <si>
     <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
   </si>
   <si>
-    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
-  </si>
-  <si>
-    <t>even foods at kfc and other stalls also you can order through screens installed next to the shops.</t>
+    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
+    <t>the airport also clean and fresh.</t>
+  </si>
+  <si>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
   </si>
   <si>
     <t>well maintained and nice ambience... but very far from main city..</t>
   </si>
   <si>
+    <t>from entry to exit its was guided and maintained well.</t>
+  </si>
+  <si>
     <t>very near and clean.</t>
   </si>
   <si>
-    <t>it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
-  </si>
-  <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
     <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
   </si>
   <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
+    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
   </si>
   <si>
     <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
   </si>
   <si>
+    <t>all social distancing protocols maintained and extremely hygienic.</t>
+  </si>
+  <si>
     <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>neat clean and luxurious.</t>
-  </si>
-  <si>
-    <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
 </t>
   </si>
   <si>
-    <t>all social distancing protocols maintained and extremely hygienic.</t>
-  </si>
-  <si>
-    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
-  </si>
-  <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
+  </si>
+  <si>
+    <t>it's clean and one of the best international airports in india.</t>
+  </si>
+  <si>
+    <t>neat clean and luxurious.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/108612927997029907886?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
+    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
+  </si>
+  <si>
+    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
   </si>
   <si>
     <t>infrastructure is very impressive.</t>
   </si>
   <si>
-    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
-  </si>
-  <si>
-    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/114389758307511614241?hl=en-IN</t>
   </si>
   <si>
@@ -188,10 +188,10 @@
     <t>the staff is polite and helpful.</t>
   </si>
   <si>
+    <t>thanks to every staffs.</t>
+  </si>
+  <si>
     <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
@@ -687,7 +687,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -759,50 +759,50 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -856,7 +856,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -914,26 +914,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -941,36 +941,36 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
